--- a/scripts/deduplicate_project/results/excel/busybox_1_28_0_cppcheck.xlsx
+++ b/scripts/deduplicate_project/results/excel/busybox_1_28_0_cppcheck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hothost/Documents/git/kconfig_case_studies/scripts/deduplicate_project/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austin/Documents/kconfig_case_studies/scripts/deduplicate_project/results/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7F3C44C9-351B-8344-9CE4-2B97E50723A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FC96AA-0322-E440-A121-C46E24E74A64}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="13860" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,15 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="87">
   <si>
     <t>line</t>
   </si>
@@ -281,13 +283,25 @@
   </si>
   <si>
     <t>Count of variability2</t>
+  </si>
+  <si>
+    <t>manual_features</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>CONFIG_FDISK, CONFIG_FEATURE_FDISK_WRITABLE, CONFIG_FEATURE_SGI_LABEL</t>
+  </si>
+  <si>
+    <t>num_manual_features</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -831,7 +845,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Wei, Shiyi" refreshedDate="43512.804314120367" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="125">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wei, Shiyi" refreshedDate="43512.804314120367" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="125" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -2128,7 +2142,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2188,22 +2202,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H127" totalsRowCount="1">
-  <autoFilter ref="A1:H126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J127" totalsRowCount="1">
+  <autoFilter ref="A1:J126" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H126">
     <sortCondition descending="1" ref="F1:F126"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="line"/>
-    <tableColumn id="2" name="filename"/>
-    <tableColumn id="3" name="tool"/>
-    <tableColumn id="4" name="target"/>
-    <tableColumn id="5" name="type"/>
-    <tableColumn id="6" name="num_configs" totalsRowFunction="custom">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="line"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="filename"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="tool"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="target"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="type"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="num_configs" totalsRowFunction="custom">
       <totalsRowFormula>MEDIAN(F9:F126)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="variability"/>
-    <tableColumn id="8" name="classification"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="variability"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="classification"/>
+    <tableColumn id="9" xr3:uid="{1E171F01-D267-5A45-9F91-498A7024B2B5}" name="manual_features"/>
+    <tableColumn id="10" xr3:uid="{196E43DC-59DD-094E-A9E6-3C12E3C9666D}" name="num_manual_features"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2505,21 +2521,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>78</v>
       </c>
@@ -2530,7 +2546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
@@ -2541,7 +2557,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>80</v>
       </c>
@@ -2552,7 +2568,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
@@ -2569,21 +2585,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2608,8 +2625,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>254</v>
       </c>
@@ -2632,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>255</v>
       </c>
@@ -2655,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>5649</v>
       </c>
@@ -2678,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>5651</v>
       </c>
@@ -2701,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>262</v>
       </c>
@@ -2726,8 +2749,11 @@
       <c r="H6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>227</v>
       </c>
@@ -2752,8 +2778,11 @@
       <c r="H7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>115</v>
       </c>
@@ -2779,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>740</v>
       </c>
@@ -2802,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>628</v>
       </c>
@@ -2825,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>121</v>
       </c>
@@ -2848,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>1217</v>
       </c>
@@ -2871,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>118</v>
       </c>
@@ -2894,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>119</v>
       </c>
@@ -2917,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>281</v>
       </c>
@@ -2940,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>282</v>
       </c>
@@ -2963,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>165</v>
       </c>
@@ -2986,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>624</v>
       </c>
@@ -3009,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1087</v>
       </c>
@@ -3032,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>333</v>
       </c>
@@ -3055,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>1231</v>
       </c>
@@ -3078,7 +3107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>1251</v>
       </c>
@@ -3101,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>1253</v>
       </c>
@@ -3124,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1416</v>
       </c>
@@ -3147,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>34</v>
       </c>
@@ -3170,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>96</v>
       </c>
@@ -3193,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>809</v>
       </c>
@@ -3216,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>907</v>
       </c>
@@ -3239,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>454</v>
       </c>
@@ -3262,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>2506</v>
       </c>
@@ -3285,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2792</v>
       </c>
@@ -3308,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>3011</v>
       </c>
@@ -3331,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>1300</v>
       </c>
@@ -3354,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>1301</v>
       </c>
@@ -3377,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>1302</v>
       </c>
@@ -3400,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>250</v>
       </c>
@@ -3423,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>257</v>
       </c>
@@ -3446,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>258</v>
       </c>
@@ -3469,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>500</v>
       </c>
@@ -3492,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>64</v>
       </c>
@@ -3515,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>65</v>
       </c>
@@ -3538,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>601</v>
       </c>
@@ -3561,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>347</v>
       </c>
@@ -3584,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>348</v>
       </c>
@@ -3607,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>1116</v>
       </c>
@@ -3630,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>155</v>
       </c>
@@ -3653,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>239</v>
       </c>
@@ -3676,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>240</v>
       </c>
@@ -3699,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>142</v>
       </c>
@@ -3722,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>143</v>
       </c>
@@ -3745,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>369</v>
       </c>
@@ -3768,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>370</v>
       </c>
@@ -3791,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>115</v>
       </c>
@@ -3814,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>76</v>
       </c>
@@ -3837,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>493</v>
       </c>
@@ -3860,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>257</v>
       </c>
@@ -3883,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>2624</v>
       </c>
@@ -3906,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>70</v>
       </c>
@@ -3929,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>71</v>
       </c>
@@ -3952,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>72</v>
       </c>
@@ -3975,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>73</v>
       </c>
@@ -3998,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>120</v>
       </c>
@@ -4021,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>205</v>
       </c>
@@ -4044,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>650</v>
       </c>
@@ -4067,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>651</v>
       </c>
@@ -4090,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>75</v>
       </c>
@@ -4113,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>32</v>
       </c>
@@ -4136,7 +4165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>183</v>
       </c>
@@ -4159,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>185</v>
       </c>
@@ -4182,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>370</v>
       </c>
@@ -4205,7 +4234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>470</v>
       </c>
@@ -4228,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>138</v>
       </c>
@@ -4253,8 +4282,14 @@
       <c r="H72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="s">
+        <v>85</v>
+      </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>139</v>
       </c>
@@ -4279,8 +4314,14 @@
       <c r="H73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="s">
+        <v>85</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>589</v>
       </c>
@@ -4303,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>590</v>
       </c>
@@ -4326,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>742</v>
       </c>
@@ -4349,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>44</v>
       </c>
@@ -4372,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>327</v>
       </c>
@@ -4395,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>122</v>
       </c>
@@ -4418,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>106</v>
       </c>
@@ -4441,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>835</v>
       </c>
@@ -4464,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>296</v>
       </c>
@@ -4487,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>464</v>
       </c>
@@ -4510,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>470</v>
       </c>
@@ -4533,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>324</v>
       </c>
@@ -4556,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>325</v>
       </c>
@@ -4579,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>600</v>
       </c>
@@ -4602,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>137</v>
       </c>
@@ -4625,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>133</v>
       </c>
@@ -4648,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>665</v>
       </c>
@@ -4674,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>146</v>
       </c>
@@ -4697,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>147</v>
       </c>
@@ -4720,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>2091</v>
       </c>
@@ -4743,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>2092</v>
       </c>
@@ -4766,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>349</v>
       </c>
@@ -4789,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>358</v>
       </c>
@@ -4812,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>367</v>
       </c>
@@ -4835,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>379</v>
       </c>
@@ -4858,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>389</v>
       </c>
@@ -4881,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>402</v>
       </c>
@@ -4904,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>411</v>
       </c>
@@ -4927,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>420</v>
       </c>
@@ -4950,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>429</v>
       </c>
@@ -4973,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>438</v>
       </c>
@@ -4996,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>1232</v>
       </c>
@@ -5019,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>657</v>
       </c>
@@ -5042,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>658</v>
       </c>
@@ -5065,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>1339</v>
       </c>
@@ -5088,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>1349</v>
       </c>
@@ -5111,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>1412</v>
       </c>
@@ -5134,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>1414</v>
       </c>
@@ -5157,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>1592</v>
       </c>
@@ -5180,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>1664</v>
       </c>
@@ -5203,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>138</v>
       </c>
@@ -5226,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>139</v>
       </c>
@@ -5249,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>657</v>
       </c>
@@ -5272,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>661</v>
       </c>
@@ -5295,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>56</v>
       </c>
@@ -5318,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>392</v>
       </c>
@@ -5341,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>393</v>
       </c>
@@ -5364,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>577</v>
       </c>
@@ -5387,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>415</v>
       </c>
@@ -5410,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>255</v>
       </c>
@@ -5433,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>256</v>
       </c>
@@ -5456,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>601</v>
       </c>
@@ -5479,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>378</v>
       </c>
@@ -5502,7 +5543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="F127">
         <f>MEDIAN(F9:F126)</f>
         <v>490.5</v>
